--- a/CPI All Groups, Index Numbers and Percentage Changes.xlsx
+++ b/CPI All Groups, Index Numbers and Percentage Changes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Excelerator\XmlTransform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GithubRepo\SACE_Stage2_DigitalTech_PST3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="7320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="7320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -393,7 +393,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="80">
   <si>
     <t>Index Numbers ;  All groups CPI ;  Sydney ;</t>
   </si>
@@ -631,20 +631,24 @@
   <si>
     <t>© Commonwealth of Australia  2025</t>
   </si>
+  <si>
+    <t>Index Numbers ;  All groups CPI ;  Darwin ;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.0;\-0.0;0.0;@"/>
+    <numFmt numFmtId="176" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="177" formatCode="0.0;\-0.0;0.0;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -692,7 +696,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -700,7 +704,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -708,8 +712,15 @@
       <u/>
       <sz val="8"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -759,13 +770,13 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -779,9 +790,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -798,10 +806,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -915,7 +926,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1179,26 +1190,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="10"/>
-    <col min="5" max="5" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="7.7109375" style="10"/>
-    <col min="12" max="12" width="9.7109375" style="10" customWidth="1"/>
-    <col min="13" max="25" width="7.7109375" style="10"/>
-    <col min="26" max="26" width="7.7109375" style="10" customWidth="1"/>
-    <col min="27" max="16384" width="7.7109375" style="10"/>
+    <col min="1" max="1" width="17.83203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="30.75" style="10" customWidth="1"/>
+    <col min="4" max="4" width="7.75" style="10"/>
+    <col min="5" max="5" width="9.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="7.75" style="10"/>
+    <col min="12" max="12" width="9.75" style="10" customWidth="1"/>
+    <col min="13" max="25" width="7.75" style="10"/>
+    <col min="26" max="26" width="7.75" style="10" customWidth="1"/>
+    <col min="27" max="16384" width="7.75" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>69</v>
       </c>
@@ -1242,74 +1253,74 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="D8" s="16" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+    </row>
+    <row r="8" spans="1:13" ht="14" x14ac:dyDescent="0.3">
+      <c r="D8" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+    <row r="9" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>40</v>
       </c>
       <c r="F12" s="9">
@@ -1334,14 +1345,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F13" s="9">
@@ -1366,14 +1377,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>42</v>
       </c>
       <c r="F14" s="9">
@@ -1398,14 +1409,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="18" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="9">
@@ -1430,14 +1441,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="9">
@@ -1462,14 +1473,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>45</v>
       </c>
       <c r="F17" s="9">
@@ -1494,14 +1505,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>46</v>
       </c>
       <c r="F18" s="9">
@@ -1526,14 +1537,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>47</v>
       </c>
       <c r="F19" s="9">
@@ -1558,14 +1569,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>48</v>
       </c>
       <c r="F20" s="9">
@@ -1590,14 +1601,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>51</v>
       </c>
       <c r="F21" s="9">
@@ -1622,14 +1633,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>52</v>
       </c>
       <c r="F22" s="9">
@@ -1654,14 +1665,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>53</v>
       </c>
       <c r="F23" s="9">
@@ -1686,14 +1697,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="18" t="s">
         <v>54</v>
       </c>
       <c r="F24" s="9">
@@ -1718,14 +1729,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="18" t="s">
         <v>55</v>
       </c>
       <c r="F25" s="9">
@@ -1750,14 +1761,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>56</v>
       </c>
       <c r="F26" s="9">
@@ -1782,14 +1793,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="18" t="s">
         <v>57</v>
       </c>
       <c r="F27" s="9">
@@ -1814,14 +1825,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="18" t="s">
         <v>58</v>
       </c>
       <c r="F28" s="9">
@@ -1846,14 +1857,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="18" t="s">
         <v>59</v>
       </c>
       <c r="F29" s="9">
@@ -1878,14 +1889,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="18" t="s">
         <v>60</v>
       </c>
       <c r="F30" s="9">
@@ -1910,14 +1921,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="18" t="s">
         <v>61</v>
       </c>
       <c r="F31" s="9">
@@ -1942,14 +1953,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F32" s="9">
@@ -1974,14 +1985,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="18" t="s">
         <v>63</v>
       </c>
       <c r="F33" s="9">
@@ -2006,14 +2017,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="18" t="s">
         <v>64</v>
       </c>
       <c r="F34" s="9">
@@ -2038,14 +2049,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="18" t="s">
         <v>65</v>
       </c>
       <c r="F35" s="9">
@@ -2070,14 +2081,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="18" t="s">
         <v>66</v>
       </c>
       <c r="F36" s="9">
@@ -2102,14 +2113,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="18" t="s">
         <v>67</v>
       </c>
       <c r="F37" s="9">
@@ -2134,14 +2145,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="18" t="s">
         <v>68</v>
       </c>
       <c r="F38" s="9">
@@ -2175,6 +2186,7 @@
   <mergeCells count="1">
     <mergeCell ref="B6:L6"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D8" location="Enquiries!A1" display="Enquiries"/>
     <hyperlink ref="E12" location="A2325806K" display="A2325806K"/>
@@ -2215,19 +2227,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB317"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="10" topLeftCell="B298" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="14.7109375" style="1"/>
+    <col min="1" max="16384" width="14.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="2" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="2" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2247,7 +2259,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>7</v>
@@ -2310,7 +2322,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
@@ -2396,7 +2408,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
@@ -2482,7 +2494,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
@@ -2568,7 +2580,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -2654,7 +2666,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
@@ -2740,7 +2752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
@@ -2826,7 +2838,7 @@
         <v>17868</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
@@ -2912,7 +2924,7 @@
         <v>45717</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2998,7 +3010,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
@@ -28200,9 +28212,10 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -28214,24 +28227,24 @@
       <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="10"/>
-    <col min="5" max="5" width="8.7109375" style="10" customWidth="1"/>
-    <col min="6" max="11" width="7.7109375" style="10"/>
-    <col min="12" max="12" width="9.7109375" style="10" customWidth="1"/>
-    <col min="13" max="25" width="7.7109375" style="10"/>
-    <col min="26" max="26" width="7.7109375" style="10" customWidth="1"/>
-    <col min="27" max="16384" width="7.7109375" style="10"/>
+    <col min="1" max="1" width="17.83203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="30.75" style="10" customWidth="1"/>
+    <col min="4" max="4" width="7.75" style="10"/>
+    <col min="5" max="5" width="8.75" style="10" customWidth="1"/>
+    <col min="6" max="11" width="7.75" style="10"/>
+    <col min="12" max="12" width="9.75" style="10" customWidth="1"/>
+    <col min="13" max="25" width="7.75" style="10"/>
+    <col min="26" max="26" width="7.75" style="10" customWidth="1"/>
+    <col min="27" max="16384" width="7.75" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:26" ht="14" x14ac:dyDescent="0.3">
       <c r="Z1"/>
     </row>
-    <row r="2" spans="2:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:26" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>69</v>
       </c>
@@ -28275,28 +28288,28 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="10" spans="2:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="15" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+    </row>
+    <row r="10" spans="2:26" ht="13" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -28309,6 +28322,7 @@
   <mergeCells count="1">
     <mergeCell ref="B6:L6"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
